--- a/CNCToolingDatabase/bin/Debug/net8.0/Data/MASTER - MACHINE NAME.xlsx
+++ b/CNCToolingDatabase/bin/Debug/net8.0/Data/MASTER - MACHINE NAME.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Tool-Master-Control\Tool-Master-Control\CNCToolingDatabase\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FD3425-C985-4DB8-8BF8-5ADB7845AA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C405598F-1EEA-4281-AE85-39053CF5B9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8271D9D6-2065-419F-AC52-7850B71D4074}"/>
   </bookViews>
@@ -1796,7 +1796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1805,6 +1805,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2238,10 +2241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8EBE31-42AA-4644-A64F-E2B9900B290E}">
-  <dimension ref="A1:F285"/>
+  <dimension ref="A1:H285"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2252,7 +2255,9 @@
     <col min="4" max="4" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="9.140625" style="4"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
